--- a/Cluster_analysis/graph/frequency_analysis_day6_behavior/behavior_Exp/segment_006/summary_statistics.xlsx
+++ b/Cluster_analysis/graph/frequency_analysis_day6_behavior/behavior_Exp/segment_006/summary_statistics.xlsx
@@ -585,55 +585,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.004943502824858757</v>
+        <v>0.01173708920187793</v>
       </c>
       <c r="C3" t="n">
-        <v>252.7935350920606</v>
+        <v>61.80612898943223</v>
       </c>
       <c r="D3" t="n">
-        <v>661.4045001997807</v>
+        <v>96.99707966309833</v>
       </c>
       <c r="E3" t="n">
-        <v>1.192995365034988e-06</v>
+        <v>7.344141498603027e-07</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0004793453966205842</v>
+        <v>0.000216790227547635</v>
       </c>
       <c r="G3" t="n">
-        <v>3.04</v>
+        <v>1.075</v>
       </c>
       <c r="H3" t="n">
-        <v>2.135</v>
+        <v>0.7216666666666668</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6</v>
+        <v>0.5166666666666667</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.1903607380123191</v>
+        <v>-0.09282617716280404</v>
       </c>
       <c r="K3" t="n">
-        <v>0.610469003703091</v>
+        <v>0.2402413757077614</v>
       </c>
       <c r="L3" t="n">
-        <v>1.264098763037655</v>
+        <v>0.3788580565430957</v>
       </c>
       <c r="M3" t="n">
-        <v>-1.343954478473469</v>
+        <v>-0.5266363017631716</v>
       </c>
       <c r="N3" t="n">
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>1114</v>
+        <v>1365</v>
       </c>
       <c r="P3" t="n">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="Q3" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="R3" t="n">
-        <v>236</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4">
@@ -643,40 +643,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01371744794547006</v>
+        <v>0.03925602912469044</v>
       </c>
       <c r="C4" t="n">
-        <v>127.7244244190858</v>
+        <v>53.91531146879188</v>
       </c>
       <c r="D4" t="n">
-        <v>256.560754717227</v>
+        <v>64.6897729647126</v>
       </c>
       <c r="E4" t="n">
-        <v>1.757807321699151e-06</v>
+        <v>1.135115878741661e-06</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0005606947567710258</v>
+        <v>0.000268075697430729</v>
       </c>
       <c r="G4" t="n">
-        <v>5.562074969478719</v>
+        <v>1.515750639122412</v>
       </c>
       <c r="H4" t="n">
-        <v>1.030192511217924</v>
+        <v>0.3655001990153028</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7635776630164262</v>
+        <v>0.7008872504569529</v>
       </c>
       <c r="J4" t="n">
-        <v>1.182220938811569</v>
+        <v>1.156592500709941</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3321567538479046</v>
+        <v>0.1633258550246156</v>
       </c>
       <c r="L4" t="n">
-        <v>1.46951811552194</v>
+        <v>1.341023101529978</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6838389705009237</v>
+        <v>1.026886799136247</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -704,52 +704,52 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>56.77212805957059</v>
+        <v>5.406390026984798</v>
       </c>
       <c r="D5" t="n">
-        <v>258.3789572980186</v>
+        <v>27.59523486518781</v>
       </c>
       <c r="E5" t="n">
-        <v>1.170310794846939e-08</v>
+        <v>1.38538492099297e-08</v>
       </c>
       <c r="F5" t="n">
-        <v>2.631796651243229e-05</v>
+        <v>7.16512385098636e-06</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>-1.880111146215836</v>
+        <v>-1.858804811051305</v>
       </c>
       <c r="K5" t="n">
-        <v>0.126978767973035</v>
+        <v>0.07721370489210269</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.6999752684258627</v>
+        <v>-1.511465277725746</v>
       </c>
       <c r="M5" t="n">
-        <v>-2.848328096243027</v>
+        <v>-2.130798501250309</v>
       </c>
       <c r="N5" t="n">
         <v>6</v>
       </c>
       <c r="O5" t="n">
-        <v>1114</v>
+        <v>1365</v>
       </c>
       <c r="P5" t="n">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="Q5" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="R5" t="n">
-        <v>236</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -762,52 +762,52 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>160.838807901548</v>
+        <v>28.9697618401383</v>
       </c>
       <c r="D6" t="n">
-        <v>478.8431597156364</v>
+        <v>54.70989167406218</v>
       </c>
       <c r="E6" t="n">
-        <v>2.212343060235648e-07</v>
+        <v>1.35163036351378e-07</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0001610917774966956</v>
+        <v>6.36049841348557e-05</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>-1.032561409311405</v>
+        <v>-0.8122954805337355</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3540937211327312</v>
+        <v>0.1390284445698826</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0159400826883699</v>
+        <v>-0.4531011799513495</v>
       </c>
       <c r="M6" t="n">
-        <v>-1.693427948532149</v>
+        <v>-1.104378548088538</v>
       </c>
       <c r="N6" t="n">
         <v>6</v>
       </c>
       <c r="O6" t="n">
-        <v>1114</v>
+        <v>1365</v>
       </c>
       <c r="P6" t="n">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="Q6" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="R6" t="n">
-        <v>236</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7">
@@ -820,52 +820,52 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>232.8625857360099</v>
+        <v>45.22545278296515</v>
       </c>
       <c r="D7" t="n">
-        <v>598.2752077799867</v>
+        <v>78.64905354957776</v>
       </c>
       <c r="E7" t="n">
-        <v>5.307128286637144e-07</v>
+        <v>3.600044551552547e-07</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0003046712292941909</v>
+        <v>0.0001188371813901453</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.6631586384210142</v>
+        <v>-0.4491787379132711</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5670082856767704</v>
+        <v>0.1970198392902885</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9899553405790014</v>
+        <v>0.03957327202573103</v>
       </c>
       <c r="M7" t="n">
-        <v>-1.386657014809106</v>
+        <v>-0.7462109459097173</v>
       </c>
       <c r="N7" t="n">
         <v>6</v>
       </c>
       <c r="O7" t="n">
-        <v>1114</v>
+        <v>1365</v>
       </c>
       <c r="P7" t="n">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="Q7" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="R7" t="n">
-        <v>236</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8">
@@ -878,52 +878,52 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>296.6354291538013</v>
+        <v>69.68896930719649</v>
       </c>
       <c r="D8" t="n">
-        <v>803.4814959726382</v>
+        <v>106.0950526474616</v>
       </c>
       <c r="E8" t="n">
-        <v>1.543025157163357e-06</v>
+        <v>8.893107046141586e-07</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0005166583507296078</v>
+        <v>0.0002503492900080056</v>
       </c>
       <c r="G8" t="n">
-        <v>3.025</v>
+        <v>1.75</v>
       </c>
       <c r="H8" t="n">
-        <v>2.625</v>
+        <v>0.9</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4192041800431859</v>
+        <v>0.1640872596457833</v>
       </c>
       <c r="K8" t="n">
-        <v>0.84520049052679</v>
+        <v>0.284115659372159</v>
       </c>
       <c r="L8" t="n">
-        <v>2.375744657639689</v>
+        <v>0.6959172147744159</v>
       </c>
       <c r="M8" t="n">
-        <v>-1.098829500834534</v>
+        <v>-0.3693049206689472</v>
       </c>
       <c r="N8" t="n">
         <v>6</v>
       </c>
       <c r="O8" t="n">
-        <v>1114</v>
+        <v>1365</v>
       </c>
       <c r="P8" t="n">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="Q8" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="R8" t="n">
-        <v>236</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
@@ -933,55 +933,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0423728813559322</v>
+        <v>0.1408450704225352</v>
       </c>
       <c r="C9" t="n">
-        <v>639.7964585894899</v>
+        <v>273.683978327085</v>
       </c>
       <c r="D9" t="n">
-        <v>1401.434491276347</v>
+        <v>379.2357228118058</v>
       </c>
       <c r="E9" t="n">
-        <v>8.744386762338906e-06</v>
+        <v>7.653160410004444e-06</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003316130175781508</v>
+        <v>0.001209408535701709</v>
       </c>
       <c r="G9" t="n">
-        <v>22.4</v>
+        <v>6.4</v>
       </c>
       <c r="H9" t="n">
-        <v>5.2</v>
+        <v>1.7</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
-        <v>2.711001943175805</v>
+        <v>3.854703920099788</v>
       </c>
       <c r="K9" t="n">
-        <v>1.607586681088536</v>
+        <v>0.993052292512984</v>
       </c>
       <c r="L9" t="n">
-        <v>5.003257096949595</v>
+        <v>5.60484504587697</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9722466631559198</v>
+        <v>2.506502401418479</v>
       </c>
       <c r="N9" t="n">
         <v>6</v>
       </c>
       <c r="O9" t="n">
-        <v>1114</v>
+        <v>1365</v>
       </c>
       <c r="P9" t="n">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="Q9" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="R9" t="n">
-        <v>236</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
